--- a/HybridFrameworkBackUp/TestData/CRMData.xlsx
+++ b/HybridFrameworkBackUp/TestData/CRMData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmitsDellXPS\eclipse-workspace\zMyFramework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmitsDellXPS\git\Framework50\HybridFrameworkBackUp\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDDF40B-CD4E-43C3-8526-F2EF1E8FFD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030C151A-9AB0-4994-A5B1-307F7E749617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,10 +50,10 @@
     <t>Admin125</t>
   </si>
   <si>
-    <t>Robert_Crai411</t>
-  </si>
-  <si>
-    <t>Fiona_Grac411</t>
+    <t>Fiona_Grac911</t>
+  </si>
+  <si>
+    <t>Robert_Crai912</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -452,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>

--- a/HybridFrameworkBackUp/TestData/CRMData.xlsx
+++ b/HybridFrameworkBackUp/TestData/CRMData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmitsDellXPS\git\Framework50\HybridFrameworkBackUp\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030C151A-9AB0-4994-A5B1-307F7E749617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7323CB0-5A96-409D-BB69-D69EA506C9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
     <sheet name="UserCreation" sheetId="2" r:id="rId2"/>
-    <sheet name="UserDeletion" sheetId="3" r:id="rId3"/>
+    <sheet name="NewUsers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Admin</t>
   </si>
@@ -35,25 +35,13 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>Amit1526</t>
-  </si>
-  <si>
-    <t>Robert Craig</t>
-  </si>
-  <si>
     <t>Fiona Grace</t>
-  </si>
-  <si>
-    <t>Admin124</t>
   </si>
   <si>
     <t>Admin125</t>
   </si>
   <si>
-    <t>Fiona_Grac911</t>
-  </si>
-  <si>
-    <t>Robert_Crai912</t>
+    <t>Fiona_Grac</t>
   </si>
 </sst>
 </file>
@@ -423,39 +411,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70A79C6-8EB7-497C-84B3-7B6E6E07B244}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -469,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C08947-6047-481F-BDE2-DDAEEB69165B}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,9 +456,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A1" s="2"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
